--- a/UPS/bin/Debug/data/UPSData.xlsx
+++ b/UPS/bin/Debug/data/UPSData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8311A2B-4ACD-4485-8FF4-D540A5EF57AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A01AE64-4AE7-4A4D-A628-8CBEA04ED1E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/UPS/bin/Debug/data/UPSData.xlsx
+++ b/UPS/bin/Debug/data/UPSData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A01AE64-4AE7-4A4D-A628-8CBEA04ED1E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9C0DED-74F0-47F7-BDDB-06CF685C3021}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Archimod</t>
+  </si>
+  <si>
+    <t>Keor MOD</t>
   </si>
 </sst>
 </file>
@@ -361,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +448,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
